--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/10/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/10/seed4/result_data_KNN.xlsx
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.412000000000001</v>
+        <v>5.910000000000001</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.79</v>
+        <v>-21.723</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.784000000000001</v>
+        <v>5.927000000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.152000000000001</v>
+        <v>-8.270999999999999</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.41</v>
+        <v>-22.156</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.184</v>
+        <v>-20.454</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.786</v>
+        <v>5.761</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.356</v>
+        <v>-21.188</v>
       </c>
       <c r="B27" t="n">
-        <v>5.546</v>
+        <v>5.695000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.602</v>
+        <v>5.688</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.416</v>
+        <v>8.376000000000001</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,13 +1077,13 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.834000000000001</v>
+        <v>5.763</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.710000000000001</v>
+        <v>-8.669</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.556</v>
+        <v>-7.474000000000001</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1298,13 +1298,13 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>4.362</v>
+        <v>5.14</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.244000000000002</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.936</v>
+        <v>5.705</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.23</v>
+        <v>-8.101000000000001</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.109999999999999</v>
+        <v>-7.336999999999999</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.638</v>
+        <v>-21.586</v>
       </c>
       <c r="B69" t="n">
-        <v>5.473999999999999</v>
+        <v>5.688000000000001</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,13 +1621,13 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>5.16</v>
+        <v>5.412</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.028</v>
+        <v>-6.797</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.186</v>
+        <v>-20.396</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.262</v>
+        <v>-22.23</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.254</v>
+        <v>5.736</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.872</v>
+        <v>-8.138</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>7.425999999999999</v>
+        <v>7.231</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
